--- a/data/pca/factorExposure/factorExposure_2013-01-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008077487756915152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001814444904652441</v>
+      </c>
+      <c r="C2">
+        <v>-0.03269137656052042</v>
+      </c>
+      <c r="D2">
+        <v>-0.005169441982186166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003496742626916962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006329322724568617</v>
+      </c>
+      <c r="C4">
+        <v>-0.08468899081090775</v>
+      </c>
+      <c r="D4">
+        <v>-0.07962024779100646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003357469145924871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01418823426930224</v>
+      </c>
+      <c r="C6">
+        <v>-0.1132524404145281</v>
+      </c>
+      <c r="D6">
+        <v>-0.03441295418453332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002120875458723002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005074417657101251</v>
+      </c>
+      <c r="C7">
+        <v>-0.05730974043520363</v>
+      </c>
+      <c r="D7">
+        <v>-0.03571332813459357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009357335240945175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005820606733282456</v>
+      </c>
+      <c r="C8">
+        <v>-0.03844839699104142</v>
+      </c>
+      <c r="D8">
+        <v>-0.04524665439561857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003315138465400823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004463351544422861</v>
+      </c>
+      <c r="C9">
+        <v>-0.07061546751227324</v>
+      </c>
+      <c r="D9">
+        <v>-0.07149475256711321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002445750702057465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005360306432675127</v>
+      </c>
+      <c r="C10">
+        <v>-0.05723823622043314</v>
+      </c>
+      <c r="D10">
+        <v>0.1975746532568926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002505314923724585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005771121758640457</v>
+      </c>
+      <c r="C11">
+        <v>-0.08055445506849838</v>
+      </c>
+      <c r="D11">
+        <v>-0.06036258722720536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00054882968178874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004073080386965195</v>
+      </c>
+      <c r="C12">
+        <v>-0.06419861526908266</v>
+      </c>
+      <c r="D12">
+        <v>-0.04749831619831339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002505459874298877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008784986293393948</v>
+      </c>
+      <c r="C13">
+        <v>-0.06632147041624271</v>
+      </c>
+      <c r="D13">
+        <v>-0.06319391299418825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001003595549016091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001597893571283891</v>
+      </c>
+      <c r="C14">
+        <v>-0.04561455293053847</v>
+      </c>
+      <c r="D14">
+        <v>-0.007379033162090791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000779973157923771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006058055428714937</v>
+      </c>
+      <c r="C15">
+        <v>-0.04272331963416326</v>
+      </c>
+      <c r="D15">
+        <v>-0.02801314522959554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008788420919193622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005080573095008777</v>
+      </c>
+      <c r="C16">
+        <v>-0.06561768622261223</v>
+      </c>
+      <c r="D16">
+        <v>-0.0466763079828154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>5.961835041649602e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008907259650536511</v>
+      </c>
+      <c r="C20">
+        <v>-0.06538754417817601</v>
+      </c>
+      <c r="D20">
+        <v>-0.04318153482794058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005689488462699107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009996002696348429</v>
+      </c>
+      <c r="C21">
+        <v>-0.02149974355540815</v>
+      </c>
+      <c r="D21">
+        <v>-0.03777301896924141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01666846901032601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006747471334183451</v>
+      </c>
+      <c r="C22">
+        <v>-0.09461388614210139</v>
+      </c>
+      <c r="D22">
+        <v>-0.1082936772141315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01696941116189629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006565658227887673</v>
+      </c>
+      <c r="C23">
+        <v>-0.09540434579626304</v>
+      </c>
+      <c r="D23">
+        <v>-0.1083786709465803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001293228927837706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005462735557041119</v>
+      </c>
+      <c r="C24">
+        <v>-0.0765233871905442</v>
+      </c>
+      <c r="D24">
+        <v>-0.06098407301645373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003878596410323234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.0030175325787987</v>
+      </c>
+      <c r="C25">
+        <v>-0.07851296208756187</v>
+      </c>
+      <c r="D25">
+        <v>-0.06631597108301163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004894888863348276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003670624862901949</v>
+      </c>
+      <c r="C26">
+        <v>-0.04183485599875482</v>
+      </c>
+      <c r="D26">
+        <v>-0.02096171862824351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005932084481623784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001024735280556825</v>
+      </c>
+      <c r="C28">
+        <v>-0.1062887592837163</v>
+      </c>
+      <c r="D28">
+        <v>0.3158417458754191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001052067426207928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00319327768758166</v>
+      </c>
+      <c r="C29">
+        <v>-0.04918778315770624</v>
+      </c>
+      <c r="D29">
+        <v>-0.005020263450204497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003329752497139821</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009527374897519123</v>
+      </c>
+      <c r="C30">
+        <v>-0.1426408883666889</v>
+      </c>
+      <c r="D30">
+        <v>-0.09306407998388315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001114831064017652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006251056674239541</v>
+      </c>
+      <c r="C31">
+        <v>-0.04456953596340252</v>
+      </c>
+      <c r="D31">
+        <v>-0.030190947971485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006943597343548863</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004140870850966972</v>
+      </c>
+      <c r="C32">
+        <v>-0.04144390989827305</v>
+      </c>
+      <c r="D32">
+        <v>-0.01960370096560198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00247951325141764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008375298957604726</v>
+      </c>
+      <c r="C33">
+        <v>-0.08599099830864733</v>
+      </c>
+      <c r="D33">
+        <v>-0.06798554757570659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004227422554851024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003978282866566803</v>
+      </c>
+      <c r="C34">
+        <v>-0.05790897098414396</v>
+      </c>
+      <c r="D34">
+        <v>-0.05338202151159997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001816536079699159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004930888829976192</v>
+      </c>
+      <c r="C35">
+        <v>-0.04033480537146836</v>
+      </c>
+      <c r="D35">
+        <v>-0.01725658814878753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003704647649448198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001118478241594806</v>
+      </c>
+      <c r="C36">
+        <v>-0.02438226657024441</v>
+      </c>
+      <c r="D36">
+        <v>-0.02230157080641781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002236483638191021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009524429494124095</v>
+      </c>
+      <c r="C38">
+        <v>-0.03547141012130971</v>
+      </c>
+      <c r="D38">
+        <v>-0.01510811853325277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01168626367495478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0005395827286494198</v>
+      </c>
+      <c r="C39">
+        <v>-0.1161664460167791</v>
+      </c>
+      <c r="D39">
+        <v>-0.07109178856072357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009710531563876813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002620353124657386</v>
+      </c>
+      <c r="C40">
+        <v>-0.08809407698244098</v>
+      </c>
+      <c r="D40">
+        <v>-0.01829626612707803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001565481627519885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007247031611110134</v>
+      </c>
+      <c r="C41">
+        <v>-0.03818116121076783</v>
+      </c>
+      <c r="D41">
+        <v>-0.03321010086188197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002780789766819156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00403572307323369</v>
+      </c>
+      <c r="C43">
+        <v>-0.05349457035032146</v>
+      </c>
+      <c r="D43">
+        <v>-0.02269599048557057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004101569520119367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003437377100579251</v>
+      </c>
+      <c r="C44">
+        <v>-0.1095871048134866</v>
+      </c>
+      <c r="D44">
+        <v>-0.0687312066306859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001234976094563386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002223128878946356</v>
+      </c>
+      <c r="C46">
+        <v>-0.03329855488611263</v>
+      </c>
+      <c r="D46">
+        <v>-0.03270436386612068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003741785582265494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002696404493650974</v>
+      </c>
+      <c r="C47">
+        <v>-0.03727953075659585</v>
+      </c>
+      <c r="D47">
+        <v>-0.02240728401685056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003762561469909007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006613120505625174</v>
+      </c>
+      <c r="C48">
+        <v>-0.03057633562141106</v>
+      </c>
+      <c r="D48">
+        <v>-0.03104468773846081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01201570083468727</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01534216887083169</v>
+      </c>
+      <c r="C49">
+        <v>-0.1841828284259926</v>
+      </c>
+      <c r="D49">
+        <v>-0.0111349252133552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001569692306925954</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003618072942749526</v>
+      </c>
+      <c r="C50">
+        <v>-0.04347159165711367</v>
+      </c>
+      <c r="D50">
+        <v>-0.03406516765028025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009526225433967654</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004491524868833559</v>
+      </c>
+      <c r="C51">
+        <v>-0.02715111239443309</v>
+      </c>
+      <c r="D51">
+        <v>-0.01835726935402636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007886679210604573</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02084648902074482</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691378055185289</v>
+      </c>
+      <c r="D53">
+        <v>-0.02897194060709786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001205756008915263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008710985251372679</v>
+      </c>
+      <c r="C54">
+        <v>-0.05505165082564683</v>
+      </c>
+      <c r="D54">
+        <v>-0.04236612291314577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003867491480003089</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009460208502719366</v>
+      </c>
+      <c r="C55">
+        <v>-0.1083318159350411</v>
+      </c>
+      <c r="D55">
+        <v>-0.03972816065418563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002869034795297075</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02008025239900289</v>
+      </c>
+      <c r="C56">
+        <v>-0.1743929941467353</v>
+      </c>
+      <c r="D56">
+        <v>-0.02959427469767718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006780171610847624</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01975879776596246</v>
+      </c>
+      <c r="C58">
+        <v>-0.1111156822167194</v>
+      </c>
+      <c r="D58">
+        <v>-0.05281382007583409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006785355369183603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009630075586943567</v>
+      </c>
+      <c r="C59">
+        <v>-0.1613842685618687</v>
+      </c>
+      <c r="D59">
+        <v>0.3154782860209742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00401679528537844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02385534095628417</v>
+      </c>
+      <c r="C60">
+        <v>-0.221809854287088</v>
+      </c>
+      <c r="D60">
+        <v>-0.03283396409125985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01343297382203229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001669990307297339</v>
+      </c>
+      <c r="C61">
+        <v>-0.09568427407990911</v>
+      </c>
+      <c r="D61">
+        <v>-0.05744785138783259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1636256695254391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1448331076948652</v>
+      </c>
+      <c r="C62">
+        <v>-0.0925278646595111</v>
+      </c>
+      <c r="D62">
+        <v>-0.04488056453548918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008854606318760681</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00629480826073975</v>
+      </c>
+      <c r="C63">
+        <v>-0.05533478418853974</v>
+      </c>
+      <c r="D63">
+        <v>-0.02436660565001992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.000280304714883563</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01540457937722986</v>
+      </c>
+      <c r="C64">
+        <v>-0.1057097518613458</v>
+      </c>
+      <c r="D64">
+        <v>-0.05966041719614591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002923929457076641</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01797654023327421</v>
+      </c>
+      <c r="C65">
+        <v>-0.1229396422770225</v>
+      </c>
+      <c r="D65">
+        <v>-0.01986244218943445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0075408803183345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01314511367398734</v>
+      </c>
+      <c r="C66">
+        <v>-0.1601983879870895</v>
+      </c>
+      <c r="D66">
+        <v>-0.1120617731925273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003550596877595597</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01570103638396273</v>
+      </c>
+      <c r="C67">
+        <v>-0.0663713758636402</v>
+      </c>
+      <c r="D67">
+        <v>-0.02496967126464593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006503877122975433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0005397758299415357</v>
+      </c>
+      <c r="C68">
+        <v>-0.08613341457598037</v>
+      </c>
+      <c r="D68">
+        <v>0.2561956397300055</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002110992355416658</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006208889688808246</v>
+      </c>
+      <c r="C69">
+        <v>-0.05076800546296488</v>
+      </c>
+      <c r="D69">
+        <v>-0.03727889144539708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003439474339071713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001897021268249107</v>
+      </c>
+      <c r="C70">
+        <v>-0.002318395791728886</v>
+      </c>
+      <c r="D70">
+        <v>-0.003292550360068983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0006249571947550373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00579808397901777</v>
+      </c>
+      <c r="C71">
+        <v>-0.09577039383842116</v>
+      </c>
+      <c r="D71">
+        <v>0.3054229407469817</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003826341005324637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01604364246586149</v>
+      </c>
+      <c r="C72">
+        <v>-0.1531557343748378</v>
+      </c>
+      <c r="D72">
+        <v>-0.022253146011276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01147720264935552</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.030802931147705</v>
+      </c>
+      <c r="C73">
+        <v>-0.2793372691323996</v>
+      </c>
+      <c r="D73">
+        <v>-0.05174339230232898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004611511196772826</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001959812380424608</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046945838754501</v>
+      </c>
+      <c r="D74">
+        <v>-0.03625967714192218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002576123465386341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01099520845150405</v>
+      </c>
+      <c r="C75">
+        <v>-0.1256574992240141</v>
+      </c>
+      <c r="D75">
+        <v>-0.02245356581789438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00943466265282566</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02176485602588169</v>
+      </c>
+      <c r="C76">
+        <v>-0.1488098302161858</v>
+      </c>
+      <c r="D76">
+        <v>-0.06063575420183621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009274954671702287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02387478306318171</v>
+      </c>
+      <c r="C77">
+        <v>-0.1271661954930488</v>
+      </c>
+      <c r="D77">
+        <v>-0.09060839074655526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004597947911199171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01477938874860613</v>
+      </c>
+      <c r="C78">
+        <v>-0.09693216037415012</v>
+      </c>
+      <c r="D78">
+        <v>-0.06929616101040383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.022841758489141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03766132062254361</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561893043008032</v>
+      </c>
+      <c r="D79">
+        <v>-0.03344599430052789</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006549804560403119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01048505277707768</v>
+      </c>
+      <c r="C80">
+        <v>-0.04092042670757667</v>
+      </c>
+      <c r="D80">
+        <v>-0.02937695797030077</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001336434389008542</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01535974155764901</v>
+      </c>
+      <c r="C81">
+        <v>-0.1273464703468365</v>
+      </c>
+      <c r="D81">
+        <v>-0.03886244137721149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005768219857918169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0198004507259802</v>
+      </c>
+      <c r="C82">
+        <v>-0.1401761826881971</v>
+      </c>
+      <c r="D82">
+        <v>-0.04191486547433948</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008136595812677564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01006983782857161</v>
+      </c>
+      <c r="C83">
+        <v>-0.05670722046334122</v>
+      </c>
+      <c r="D83">
+        <v>-0.05720198783011055</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01338550427562287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01169411472788948</v>
+      </c>
+      <c r="C84">
+        <v>-0.0368442040395418</v>
+      </c>
+      <c r="D84">
+        <v>0.01031929225599567</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01375786024998405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02826345039741759</v>
+      </c>
+      <c r="C85">
+        <v>-0.1244775362226679</v>
+      </c>
+      <c r="D85">
+        <v>-0.04438273443429627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001692538565956633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.006078203515327058</v>
+      </c>
+      <c r="C86">
+        <v>-0.05111825860327632</v>
+      </c>
+      <c r="D86">
+        <v>-0.02089293441586944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004018997833873043</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01018975227148717</v>
+      </c>
+      <c r="C87">
+        <v>-0.1288404338648898</v>
+      </c>
+      <c r="D87">
+        <v>-0.07152784268832672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01170214315436007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002808388463952272</v>
+      </c>
+      <c r="C88">
+        <v>-0.06651437674299671</v>
+      </c>
+      <c r="D88">
+        <v>-0.01390835726295714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01404378505056756</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001390188420646551</v>
+      </c>
+      <c r="C89">
+        <v>-0.146940766335683</v>
+      </c>
+      <c r="D89">
+        <v>0.343119317961835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002299304546091758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007003412970731312</v>
+      </c>
+      <c r="C90">
+        <v>-0.1214749853801006</v>
+      </c>
+      <c r="D90">
+        <v>0.3227209716456013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006517010815621268</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01047047531332002</v>
+      </c>
+      <c r="C91">
+        <v>-0.102259935658479</v>
+      </c>
+      <c r="D91">
+        <v>-0.01890727639715408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007904183192373949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009387300222973627</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358260299928515</v>
+      </c>
+      <c r="D92">
+        <v>0.3290901628124577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003748486640763722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004820371832806291</v>
+      </c>
+      <c r="C93">
+        <v>-0.1046711528562273</v>
+      </c>
+      <c r="D93">
+        <v>0.305380358485642</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003313773115189642</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02255984584576373</v>
+      </c>
+      <c r="C94">
+        <v>-0.1476424696019222</v>
+      </c>
+      <c r="D94">
+        <v>-0.0507165605013023</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004228927076393107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01651477257743452</v>
+      </c>
+      <c r="C95">
+        <v>-0.1263851318373829</v>
+      </c>
+      <c r="D95">
+        <v>-0.05704753553733929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>2.89246176484699e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0360180479260427</v>
+      </c>
+      <c r="C97">
+        <v>-0.2124510185559767</v>
+      </c>
+      <c r="D97">
+        <v>0.01220617899549854</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003026319338555878</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0366809841381445</v>
+      </c>
+      <c r="C98">
+        <v>-0.2492708209657289</v>
+      </c>
+      <c r="D98">
+        <v>-0.0469713180782826</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848025060555691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9821796147204928</v>
+      </c>
+      <c r="C99">
+        <v>0.1165982238352654</v>
+      </c>
+      <c r="D99">
+        <v>0.02747414103737374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009572879122426882</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003230881983561341</v>
+      </c>
+      <c r="C101">
+        <v>-0.04937185248207749</v>
+      </c>
+      <c r="D101">
+        <v>-0.005128883665347823</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
